--- a/biology/Botanique/Château_Larcis_Ducasse/Château_Larcis_Ducasse.xlsx
+++ b/biology/Botanique/Château_Larcis_Ducasse/Château_Larcis_Ducasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Larcis_Ducasse</t>
+          <t>Château_Larcis_Ducasse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Larcis Ducasse est un domaine viticole situé sur la commune de Saint-Émilion (Gironde). Depuis l'édition 2012 du classement des vins de Saint-Émilion, son AOC Saint-Émilion grand cru est promu « premier grand cru classé B ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Larcis_Ducasse</t>
+          <t>Château_Larcis_Ducasse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XVIe siècle, les vins de Larcis Ducasse sont extrêmement appréciés et déjà très recherchés. En 1841, Lecoutre de Beauvais mentionne Larcis comme étant l'un des meilleurs crus de Saint-Émilion. Quelques années plus tard, en 1867, une première médaille d'or de l'Exposition universelle de Paris est décernée pour la qualité des vins produits sur ce terroir exceptionnel.
-En 1893, le château Larcis Ducasse est acheté par Henry Raba, descendant direct d'une grande famille d'armateurs et de commerçants basée à Bordeaux au XVIIIe siècle. Sa passion l'amène à investir une partie importante de sa fortune dans l'entretien de ce vignoble en terrasses et à équiper le château d'un matériel viticole de pointe. Son fils André prend la relève à son décès en 1925. André meurt ensuite pendant la guerre. Sans enfant, sa nièce Hélène Gratiot Alphandéry hérite de la propriété en 1941. Elle dirige à son tour la propriété aux côtés du maître de chai, Pharaon Roche, et son fils, Jacques Olivier Gratiot, directeur chez l'Oréal et membre de la Jurade, qui en devient gérant en 1990[1].
-Aujourd'hui, le château Larcis Ducasse est toujours aux mains de la famille Gratiot Alphandéry et depuis 2002, la propriété est sous la direction de Nicolas Thienpont[2].
+En 1893, le château Larcis Ducasse est acheté par Henry Raba, descendant direct d'une grande famille d'armateurs et de commerçants basée à Bordeaux au XVIIIe siècle. Sa passion l'amène à investir une partie importante de sa fortune dans l'entretien de ce vignoble en terrasses et à équiper le château d'un matériel viticole de pointe. Son fils André prend la relève à son décès en 1925. André meurt ensuite pendant la guerre. Sans enfant, sa nièce Hélène Gratiot Alphandéry hérite de la propriété en 1941. Elle dirige à son tour la propriété aux côtés du maître de chai, Pharaon Roche, et son fils, Jacques Olivier Gratiot, directeur chez l'Oréal et membre de la Jurade, qui en devient gérant en 1990.
+Aujourd'hui, le château Larcis Ducasse est toujours aux mains de la famille Gratiot Alphandéry et depuis 2002, la propriété est sous la direction de Nicolas Thienpont.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Larcis_Ducasse</t>
+          <t>Château_Larcis_Ducasse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La superficie du vignoble est de 11,15 hectares, avec un encépagement composé de 78 % de merlot et de 22 % de cabernet franc.
 </t>
